--- a/data-raw/data-tidy/rural-yearbook/part03-agri-produce/01-machine/2012.xlsx
+++ b/data-raw/data-tidy/rural-yearbook/part03-agri-produce/01-machine/2012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">province</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">variables</t>
   </si>
   <si>
-    <t xml:space="preserve">全国</t>
+    <t xml:space="preserve">安徽</t>
   </si>
   <si>
     <t xml:space="preserve">2012</t>
@@ -50,49 +50,31 @@
     <t xml:space="preserve">北京</t>
   </si>
   <si>
-    <t xml:space="preserve">天津</t>
+    <t xml:space="preserve">福建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甘肃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贵州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海南</t>
   </si>
   <si>
     <t xml:space="preserve">河北</t>
   </si>
   <si>
-    <t xml:space="preserve">山西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辽宁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吉林</t>
+    <t xml:space="preserve">河南</t>
   </si>
   <si>
     <t xml:space="preserve">黑龙江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江苏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浙江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安徽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">福建</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河南</t>
   </si>
   <si>
     <t xml:space="preserve">湖北</t>
@@ -101,43 +83,61 @@
     <t xml:space="preserve">湖南</t>
   </si>
   <si>
-    <t xml:space="preserve">广东</t>
+    <t xml:space="preserve">吉林</t>
   </si>
   <si>
-    <t xml:space="preserve">广西</t>
+    <t xml:space="preserve">江苏</t>
   </si>
   <si>
-    <t xml:space="preserve">海南</t>
+    <t xml:space="preserve">江西</t>
   </si>
   <si>
-    <t xml:space="preserve">重庆</t>
+    <t xml:space="preserve">辽宁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内蒙古</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宁夏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陕西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海</t>
   </si>
   <si>
     <t xml:space="preserve">四川</t>
   </si>
   <si>
-    <t xml:space="preserve">贵州</t>
+    <t xml:space="preserve">天津</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西藏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新疆</t>
   </si>
   <si>
     <t xml:space="preserve">云南</t>
   </si>
   <si>
-    <t xml:space="preserve">西藏</t>
+    <t xml:space="preserve">浙江</t>
   </si>
   <si>
-    <t xml:space="preserve">陕西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘肃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宁夏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆</t>
+    <t xml:space="preserve">重庆</t>
   </si>
   <si>
     <t xml:space="preserve">大中型拖拉机配套农具</t>
@@ -149,10 +149,25 @@
     <t xml:space="preserve">v7_sctj_nyjx_dztlj_pt</t>
   </si>
   <si>
+    <t xml:space="preserve">机播面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">千公顷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_jbmj</t>
+  </si>
+  <si>
     <t xml:space="preserve">机动脱粒机</t>
   </si>
   <si>
     <t xml:space="preserve">v7_sctj_nyjx_jdtlj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机耕面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_jgmj</t>
   </si>
   <si>
     <t xml:space="preserve">节水灌溉类机械</t>
@@ -162,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">v7_sctj_nyjx_jsgg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机收面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_jsmj</t>
   </si>
   <si>
     <t xml:space="preserve">联合收获机</t>
@@ -569,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>485.24</v>
+        <v>16.45</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -609,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0.29</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -629,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>21.37</v>
+        <v>11.62</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -649,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>9.78</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -669,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>57.94</v>
+        <v>3.05</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -689,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>19.06</v>
+        <v>3.92</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -709,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>39.59</v>
+        <v>4.1</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -729,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>80.89</v>
+        <v>21.37</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -749,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.65</v>
+        <v>33.85</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -769,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>11.59</v>
+        <v>80.89</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -789,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>1.07</v>
+        <v>13.84</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -809,7 +830,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>16.45</v>
+        <v>9.73</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -829,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>0.29</v>
+        <v>39.59</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -849,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>2.05</v>
+        <v>11.59</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -869,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>47.69</v>
+        <v>2.05</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -889,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>33.85</v>
+        <v>19.06</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -909,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>13.84</v>
+        <v>57.94</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -929,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>9.73</v>
+        <v>3.75</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -949,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>2.25</v>
+        <v>1.01</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -969,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>3.05</v>
+        <v>485.24</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -989,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>4.1</v>
+        <v>47.69</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1009,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>0.37</v>
+        <v>9.78</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1029,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>11.5</v>
+        <v>9.41</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1049,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>3.92</v>
+        <v>0.65</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1069,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>26.77</v>
+        <v>11.5</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1089,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>5.14</v>
+        <v>1.5</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1109,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>9.41</v>
+        <v>5.14</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1129,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>11.62</v>
+        <v>34.27</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1149,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>1.01</v>
+        <v>26.77</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1169,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>3.75</v>
+        <v>1.07</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1189,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>34.27</v>
+        <v>0.37</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1209,7 +1230,7 @@
         <v>42</v>
       </c>
       <c r="D34" t="n">
-        <v>763.52</v>
+        <v>32.61</v>
       </c>
       <c r="E34" t="s">
         <v>43</v>
@@ -1249,7 +1270,7 @@
         <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>2.19</v>
+        <v>0.31</v>
       </c>
       <c r="E36" t="s">
         <v>43</v>
@@ -1269,7 +1290,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>40.97</v>
+        <v>26.18</v>
       </c>
       <c r="E37" t="s">
         <v>43</v>
@@ -1289,7 +1310,7 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>20.05</v>
+        <v>3.28</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
@@ -1309,7 +1330,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="n">
-        <v>93.92</v>
+        <v>4.52</v>
       </c>
       <c r="E39" t="s">
         <v>43</v>
@@ -1329,7 +1350,7 @@
         <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>25.19</v>
+        <v>1.43</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
@@ -1349,7 +1370,7 @@
         <v>42</v>
       </c>
       <c r="D41" t="n">
-        <v>74.79</v>
+        <v>1.48</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -1369,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="D42" t="n">
-        <v>104.47</v>
+        <v>40.97</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
@@ -1389,7 +1410,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>1.68</v>
+        <v>80.22</v>
       </c>
       <c r="E43" t="s">
         <v>43</v>
@@ -1409,7 +1430,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>19.83</v>
+        <v>104.47</v>
       </c>
       <c r="E44" t="s">
         <v>43</v>
@@ -1429,7 +1450,7 @@
         <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>1.61</v>
+        <v>25.74</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
@@ -1449,7 +1470,7 @@
         <v>42</v>
       </c>
       <c r="D46" t="n">
-        <v>32.61</v>
+        <v>3.58</v>
       </c>
       <c r="E46" t="s">
         <v>43</v>
@@ -1469,7 +1490,7 @@
         <v>42</v>
       </c>
       <c r="D47" t="n">
-        <v>0.31</v>
+        <v>74.79</v>
       </c>
       <c r="E47" t="s">
         <v>43</v>
@@ -1489,7 +1510,7 @@
         <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>2.9</v>
+        <v>19.83</v>
       </c>
       <c r="E48" t="s">
         <v>43</v>
@@ -1509,7 +1530,7 @@
         <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>98.56</v>
+        <v>2.9</v>
       </c>
       <c r="E49" t="s">
         <v>43</v>
@@ -1529,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>80.22</v>
+        <v>25.19</v>
       </c>
       <c r="E50" t="s">
         <v>43</v>
@@ -1549,7 +1570,7 @@
         <v>42</v>
       </c>
       <c r="D51" t="n">
-        <v>25.74</v>
+        <v>93.92</v>
       </c>
       <c r="E51" t="s">
         <v>43</v>
@@ -1569,7 +1590,7 @@
         <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>3.58</v>
+        <v>7.05</v>
       </c>
       <c r="E52" t="s">
         <v>43</v>
@@ -1589,7 +1610,7 @@
         <v>42</v>
       </c>
       <c r="D53" t="n">
-        <v>3.28</v>
+        <v>0.67</v>
       </c>
       <c r="E53" t="s">
         <v>43</v>
@@ -1609,7 +1630,7 @@
         <v>42</v>
       </c>
       <c r="D54" t="n">
-        <v>4.52</v>
+        <v>763.52</v>
       </c>
       <c r="E54" t="s">
         <v>43</v>
@@ -1629,7 +1650,7 @@
         <v>42</v>
       </c>
       <c r="D55" t="n">
-        <v>1.48</v>
+        <v>98.56</v>
       </c>
       <c r="E55" t="s">
         <v>43</v>
@@ -1649,7 +1670,7 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>0.29</v>
+        <v>20.05</v>
       </c>
       <c r="E56" t="s">
         <v>43</v>
@@ -1669,7 +1690,7 @@
         <v>42</v>
       </c>
       <c r="D57" t="n">
-        <v>4.43</v>
+        <v>16.41</v>
       </c>
       <c r="E57" t="s">
         <v>43</v>
@@ -1689,7 +1710,7 @@
         <v>42</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="E58" t="s">
         <v>43</v>
@@ -1709,7 +1730,7 @@
         <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>4.54</v>
+        <v>4.43</v>
       </c>
       <c r="E59" t="s">
         <v>43</v>
@@ -1729,7 +1750,7 @@
         <v>42</v>
       </c>
       <c r="D60" t="n">
-        <v>3.18</v>
+        <v>2.19</v>
       </c>
       <c r="E60" t="s">
         <v>43</v>
@@ -1749,7 +1770,7 @@
         <v>42</v>
       </c>
       <c r="D61" t="n">
-        <v>16.41</v>
+        <v>3.18</v>
       </c>
       <c r="E61" t="s">
         <v>43</v>
@@ -1769,7 +1790,7 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>26.18</v>
+        <v>60.09</v>
       </c>
       <c r="E62" t="s">
         <v>43</v>
@@ -1789,7 +1810,7 @@
         <v>42</v>
       </c>
       <c r="D63" t="n">
-        <v>0.67</v>
+        <v>4.54</v>
       </c>
       <c r="E63" t="s">
         <v>43</v>
@@ -1809,7 +1830,7 @@
         <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>7.05</v>
+        <v>1.61</v>
       </c>
       <c r="E64" t="s">
         <v>43</v>
@@ -1829,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="D65" t="n">
-        <v>60.09</v>
+        <v>0.29</v>
       </c>
       <c r="E65" t="s">
         <v>43</v>
@@ -1848,14 +1869,12 @@
       <c r="C66" t="s">
         <v>45</v>
       </c>
-      <c r="D66" t="n">
-        <v>1042.32</v>
-      </c>
+      <c r="D66"/>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
@@ -1868,14 +1887,12 @@
       <c r="C67" t="s">
         <v>45</v>
       </c>
-      <c r="D67" t="n">
-        <v>0.42</v>
-      </c>
+      <c r="D67"/>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
@@ -1888,14 +1905,12 @@
       <c r="C68" t="s">
         <v>45</v>
       </c>
-      <c r="D68" t="n">
-        <v>2.14</v>
-      </c>
+      <c r="D68"/>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69">
@@ -1908,14 +1923,12 @@
       <c r="C69" t="s">
         <v>45</v>
       </c>
-      <c r="D69" t="n">
-        <v>21.19</v>
-      </c>
+      <c r="D69"/>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70">
@@ -1928,14 +1941,12 @@
       <c r="C70" t="s">
         <v>45</v>
       </c>
-      <c r="D70" t="n">
-        <v>8.16</v>
-      </c>
+      <c r="D70"/>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71">
@@ -1948,14 +1959,12 @@
       <c r="C71" t="s">
         <v>45</v>
       </c>
-      <c r="D71" t="n">
-        <v>10.15</v>
-      </c>
+      <c r="D71"/>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72">
@@ -1968,14 +1977,12 @@
       <c r="C72" t="s">
         <v>45</v>
       </c>
-      <c r="D72" t="n">
-        <v>13.77</v>
-      </c>
+      <c r="D72"/>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73">
@@ -1988,14 +1995,12 @@
       <c r="C73" t="s">
         <v>45</v>
       </c>
-      <c r="D73" t="n">
-        <v>16.89</v>
-      </c>
+      <c r="D73"/>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
@@ -2008,14 +2013,12 @@
       <c r="C74" t="s">
         <v>45</v>
       </c>
-      <c r="D74" t="n">
-        <v>16.88</v>
-      </c>
+      <c r="D74"/>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
@@ -2028,14 +2031,12 @@
       <c r="C75" t="s">
         <v>45</v>
       </c>
-      <c r="D75" t="n">
-        <v>0.28</v>
-      </c>
+      <c r="D75"/>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
@@ -2048,14 +2049,12 @@
       <c r="C76" t="s">
         <v>45</v>
       </c>
-      <c r="D76" t="n">
-        <v>18.39</v>
-      </c>
+      <c r="D76"/>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
@@ -2068,14 +2067,12 @@
       <c r="C77" t="s">
         <v>45</v>
       </c>
-      <c r="D77" t="n">
-        <v>85.89</v>
-      </c>
+      <c r="D77"/>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
@@ -2088,14 +2085,12 @@
       <c r="C78" t="s">
         <v>45</v>
       </c>
-      <c r="D78" t="n">
-        <v>36.17</v>
-      </c>
+      <c r="D78"/>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
@@ -2108,14 +2103,12 @@
       <c r="C79" t="s">
         <v>45</v>
       </c>
-      <c r="D79" t="n">
-        <v>10.27</v>
-      </c>
+      <c r="D79"/>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80">
@@ -2128,14 +2121,12 @@
       <c r="C80" t="s">
         <v>45</v>
       </c>
-      <c r="D80" t="n">
-        <v>86.34</v>
-      </c>
+      <c r="D80"/>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
@@ -2148,14 +2139,12 @@
       <c r="C81" t="s">
         <v>45</v>
       </c>
-      <c r="D81" t="n">
-        <v>40.09</v>
-      </c>
+      <c r="D81"/>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82">
@@ -2168,14 +2157,12 @@
       <c r="C82" t="s">
         <v>45</v>
       </c>
-      <c r="D82" t="n">
-        <v>53.67</v>
-      </c>
+      <c r="D82"/>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83">
@@ -2188,14 +2175,12 @@
       <c r="C83" t="s">
         <v>45</v>
       </c>
-      <c r="D83" t="n">
-        <v>24.28</v>
-      </c>
+      <c r="D83"/>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
@@ -2208,14 +2193,12 @@
       <c r="C84" t="s">
         <v>45</v>
       </c>
-      <c r="D84" t="n">
-        <v>127.43</v>
-      </c>
+      <c r="D84"/>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85">
@@ -2228,14 +2211,12 @@
       <c r="C85" t="s">
         <v>45</v>
       </c>
-      <c r="D85" t="n">
-        <v>55.08</v>
-      </c>
+      <c r="D85"/>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86">
@@ -2248,14 +2229,12 @@
       <c r="C86" t="s">
         <v>45</v>
       </c>
-      <c r="D86" t="n">
-        <v>88.54</v>
-      </c>
+      <c r="D86"/>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87">
@@ -2268,14 +2247,12 @@
       <c r="C87" t="s">
         <v>45</v>
       </c>
-      <c r="D87" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="D87"/>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88">
@@ -2288,14 +2265,12 @@
       <c r="C88" t="s">
         <v>45</v>
       </c>
-      <c r="D88" t="n">
-        <v>61.86</v>
-      </c>
+      <c r="D88"/>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
@@ -2308,14 +2283,12 @@
       <c r="C89" t="s">
         <v>45</v>
       </c>
-      <c r="D89" t="n">
-        <v>126.65</v>
-      </c>
+      <c r="D89"/>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
@@ -2328,14 +2301,12 @@
       <c r="C90" t="s">
         <v>45</v>
       </c>
-      <c r="D90" t="n">
-        <v>30.33</v>
-      </c>
+      <c r="D90"/>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91">
@@ -2348,14 +2319,12 @@
       <c r="C91" t="s">
         <v>45</v>
       </c>
-      <c r="D91" t="n">
-        <v>33.92</v>
-      </c>
+      <c r="D91"/>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92">
@@ -2368,14 +2337,12 @@
       <c r="C92" t="s">
         <v>45</v>
       </c>
-      <c r="D92" t="n">
-        <v>4.71</v>
-      </c>
+      <c r="D92"/>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93">
@@ -2388,14 +2355,12 @@
       <c r="C93" t="s">
         <v>45</v>
       </c>
-      <c r="D93" t="n">
-        <v>34.64</v>
-      </c>
+      <c r="D93"/>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94">
@@ -2408,14 +2373,12 @@
       <c r="C94" t="s">
         <v>45</v>
       </c>
-      <c r="D94" t="n">
-        <v>19.58</v>
-      </c>
+      <c r="D94"/>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
@@ -2428,14 +2391,12 @@
       <c r="C95" t="s">
         <v>45</v>
       </c>
-      <c r="D95" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="D95"/>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96">
@@ -2448,14 +2409,12 @@
       <c r="C96" t="s">
         <v>45</v>
       </c>
-      <c r="D96" t="n">
-        <v>2.08</v>
-      </c>
+      <c r="D96"/>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97">
@@ -2468,14 +2427,12 @@
       <c r="C97" t="s">
         <v>45</v>
       </c>
-      <c r="D97" t="n">
-        <v>5.58</v>
-      </c>
+      <c r="D97"/>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
@@ -2486,13 +2443,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D98" t="n">
-        <v>182.56</v>
+        <v>36.17</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
         <v>49</v>
@@ -2506,13 +2463,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D99" t="n">
-        <v>1.05</v>
+        <v>0.42</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
         <v>49</v>
@@ -2526,13 +2483,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D100" t="n">
-        <v>0.27</v>
+        <v>10.27</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
         <v>49</v>
@@ -2546,13 +2503,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D101" t="n">
-        <v>4.94</v>
+        <v>19.58</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
         <v>49</v>
@@ -2566,13 +2523,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D102" t="n">
-        <v>1.13</v>
+        <v>55.08</v>
       </c>
       <c r="E102" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
         <v>49</v>
@@ -2586,13 +2543,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D103" t="n">
-        <v>6.17</v>
+        <v>88.54</v>
       </c>
       <c r="E103" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F103" t="s">
         <v>49</v>
@@ -2606,13 +2563,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D104" t="n">
-        <v>12.33</v>
+        <v>30.33</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
         <v>49</v>
@@ -2626,13 +2583,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D105" t="n">
-        <v>3.4</v>
+        <v>4.44</v>
       </c>
       <c r="E105" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F105" t="s">
         <v>49</v>
@@ -2646,13 +2603,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D106" t="n">
-        <v>3.62</v>
+        <v>21.19</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
         <v>49</v>
@@ -2666,13 +2623,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D107" t="n">
-        <v>0.75</v>
+        <v>53.67</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F107" t="s">
         <v>49</v>
@@ -2686,13 +2643,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D108" t="n">
-        <v>4.96</v>
+        <v>16.88</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F108" t="s">
         <v>49</v>
@@ -2706,13 +2663,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D109" t="n">
-        <v>2.55</v>
+        <v>24.28</v>
       </c>
       <c r="E109" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
         <v>49</v>
@@ -2726,13 +2683,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D110" t="n">
-        <v>19.97</v>
+        <v>127.43</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
         <v>49</v>
@@ -2746,13 +2703,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D111" t="n">
-        <v>1.52</v>
+        <v>16.89</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F111" t="s">
         <v>49</v>
@@ -2766,13 +2723,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D112" t="n">
-        <v>13.85</v>
+        <v>18.39</v>
       </c>
       <c r="E112" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F112" t="s">
         <v>49</v>
@@ -2786,13 +2743,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D113" t="n">
-        <v>48.69</v>
+        <v>86.34</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
         <v>49</v>
@@ -2806,13 +2763,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D114" t="n">
-        <v>19.73</v>
+        <v>13.77</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F114" t="s">
         <v>49</v>
@@ -2826,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D115" t="n">
-        <v>4.77</v>
+        <v>10.15</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F115" t="s">
         <v>49</v>
@@ -2846,13 +2803,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D116" t="n">
-        <v>0.86</v>
+        <v>2.08</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F116" t="s">
         <v>49</v>
@@ -2866,13 +2823,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D117" t="n">
-        <v>10.4</v>
+        <v>2.5</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F117" t="s">
         <v>49</v>
@@ -2886,13 +2843,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D118" t="n">
-        <v>6.13</v>
+        <v>1042.32</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F118" t="s">
         <v>49</v>
@@ -2906,13 +2863,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D119" t="n">
-        <v>0.78</v>
+        <v>40.09</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
         <v>49</v>
@@ -2926,13 +2883,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D120" t="n">
-        <v>0.12</v>
+        <v>8.16</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F120" t="s">
         <v>49</v>
@@ -2946,13 +2903,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D121" t="n">
-        <v>2.19</v>
+        <v>34.64</v>
       </c>
       <c r="E121" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F121" t="s">
         <v>49</v>
@@ -2966,13 +2923,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D122" t="n">
-        <v>0.86</v>
+        <v>0.28</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F122" t="s">
         <v>49</v>
@@ -2986,13 +2943,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D123" t="n">
-        <v>1.12</v>
+        <v>126.65</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F123" t="s">
         <v>49</v>
@@ -3006,11 +2963,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>47</v>
-      </c>
-      <c r="D124"/>
+        <v>48</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.14</v>
+      </c>
       <c r="E124" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F124" t="s">
         <v>49</v>
@@ -3024,13 +2983,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D125" t="n">
-        <v>2.2</v>
+        <v>4.71</v>
       </c>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F125" t="s">
         <v>49</v>
@@ -3044,13 +3003,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D126" t="n">
-        <v>1.23</v>
+        <v>5.58</v>
       </c>
       <c r="E126" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F126" t="s">
         <v>49</v>
@@ -3064,13 +3023,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D127" t="n">
-        <v>0.28</v>
+        <v>33.92</v>
       </c>
       <c r="E127" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F127" t="s">
         <v>49</v>
@@ -3084,13 +3043,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D128" t="n">
-        <v>0.53</v>
+        <v>85.89</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F128" t="s">
         <v>49</v>
@@ -3104,13 +3063,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D129" t="n">
-        <v>6.16</v>
+        <v>61.86</v>
       </c>
       <c r="E129" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F129" t="s">
         <v>49</v>
@@ -3126,11 +3085,9 @@
       <c r="C130" t="s">
         <v>50</v>
       </c>
-      <c r="D130" t="n">
-        <v>127.8821</v>
-      </c>
+      <c r="D130"/>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F130" t="s">
         <v>51</v>
@@ -3146,11 +3103,9 @@
       <c r="C131" t="s">
         <v>50</v>
       </c>
-      <c r="D131" t="n">
-        <v>0.22</v>
-      </c>
+      <c r="D131"/>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F131" t="s">
         <v>51</v>
@@ -3166,11 +3121,9 @@
       <c r="C132" t="s">
         <v>50</v>
       </c>
-      <c r="D132" t="n">
-        <v>0.56</v>
-      </c>
+      <c r="D132"/>
       <c r="E132" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
         <v>51</v>
@@ -3186,11 +3139,9 @@
       <c r="C133" t="s">
         <v>50</v>
       </c>
-      <c r="D133" t="n">
-        <v>10.14</v>
-      </c>
+      <c r="D133"/>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
         <v>51</v>
@@ -3206,11 +3157,9 @@
       <c r="C134" t="s">
         <v>50</v>
       </c>
-      <c r="D134" t="n">
-        <v>2.21</v>
-      </c>
+      <c r="D134"/>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F134" t="s">
         <v>51</v>
@@ -3226,11 +3175,9 @@
       <c r="C135" t="s">
         <v>50</v>
       </c>
-      <c r="D135" t="n">
-        <v>1.59</v>
-      </c>
+      <c r="D135"/>
       <c r="E135" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F135" t="s">
         <v>51</v>
@@ -3246,11 +3193,9 @@
       <c r="C136" t="s">
         <v>50</v>
       </c>
-      <c r="D136" t="n">
-        <v>1.09</v>
-      </c>
+      <c r="D136"/>
       <c r="E136" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
         <v>51</v>
@@ -3266,11 +3211,9 @@
       <c r="C137" t="s">
         <v>50</v>
       </c>
-      <c r="D137" t="n">
-        <v>3.07</v>
-      </c>
+      <c r="D137"/>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F137" t="s">
         <v>51</v>
@@ -3286,11 +3229,9 @@
       <c r="C138" t="s">
         <v>50</v>
       </c>
-      <c r="D138" t="n">
-        <v>7.62</v>
-      </c>
+      <c r="D138"/>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F138" t="s">
         <v>51</v>
@@ -3306,11 +3247,9 @@
       <c r="C139" t="s">
         <v>50</v>
       </c>
-      <c r="D139" t="n">
-        <v>0.26</v>
-      </c>
+      <c r="D139"/>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
         <v>51</v>
@@ -3326,11 +3265,9 @@
       <c r="C140" t="s">
         <v>50</v>
       </c>
-      <c r="D140" t="n">
-        <v>11.81</v>
-      </c>
+      <c r="D140"/>
       <c r="E140" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F140" t="s">
         <v>51</v>
@@ -3346,11 +3283,9 @@
       <c r="C141" t="s">
         <v>50</v>
       </c>
-      <c r="D141" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="D141"/>
       <c r="E141" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F141" t="s">
         <v>51</v>
@@ -3366,11 +3301,9 @@
       <c r="C142" t="s">
         <v>50</v>
       </c>
-      <c r="D142" t="n">
-        <v>12.85</v>
-      </c>
+      <c r="D142"/>
       <c r="E142" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F142" t="s">
         <v>51</v>
@@ -3386,11 +3319,9 @@
       <c r="C143" t="s">
         <v>50</v>
       </c>
-      <c r="D143" t="n">
-        <v>0.63</v>
-      </c>
+      <c r="D143"/>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F143" t="s">
         <v>51</v>
@@ -3406,11 +3337,9 @@
       <c r="C144" t="s">
         <v>50</v>
       </c>
-      <c r="D144" t="n">
-        <v>6.19</v>
-      </c>
+      <c r="D144"/>
       <c r="E144" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
         <v>51</v>
@@ -3426,11 +3355,9 @@
       <c r="C145" t="s">
         <v>50</v>
       </c>
-      <c r="D145" t="n">
-        <v>21.49</v>
-      </c>
+      <c r="D145"/>
       <c r="E145" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F145" t="s">
         <v>51</v>
@@ -3446,11 +3373,9 @@
       <c r="C146" t="s">
         <v>50</v>
       </c>
-      <c r="D146" t="n">
-        <v>17.71</v>
-      </c>
+      <c r="D146"/>
       <c r="E146" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F146" t="s">
         <v>51</v>
@@ -3466,11 +3391,9 @@
       <c r="C147" t="s">
         <v>50</v>
       </c>
-      <c r="D147" t="n">
-        <v>6.69</v>
-      </c>
+      <c r="D147"/>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
         <v>51</v>
@@ -3486,11 +3409,9 @@
       <c r="C148" t="s">
         <v>50</v>
       </c>
-      <c r="D148" t="n">
-        <v>8.47</v>
-      </c>
+      <c r="D148"/>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
         <v>51</v>
@@ -3506,11 +3427,9 @@
       <c r="C149" t="s">
         <v>50</v>
       </c>
-      <c r="D149" t="n">
-        <v>2.08</v>
-      </c>
+      <c r="D149"/>
       <c r="E149" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F149" t="s">
         <v>51</v>
@@ -3526,11 +3445,9 @@
       <c r="C150" t="s">
         <v>50</v>
       </c>
-      <c r="D150" t="n">
-        <v>2.22</v>
-      </c>
+      <c r="D150"/>
       <c r="E150" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
         <v>51</v>
@@ -3546,11 +3463,9 @@
       <c r="C151" t="s">
         <v>50</v>
       </c>
-      <c r="D151" t="n">
-        <v>0.42</v>
-      </c>
+      <c r="D151"/>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F151" t="s">
         <v>51</v>
@@ -3566,11 +3481,9 @@
       <c r="C152" t="s">
         <v>50</v>
       </c>
-      <c r="D152" t="n">
-        <v>0.45</v>
-      </c>
+      <c r="D152"/>
       <c r="E152" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F152" t="s">
         <v>51</v>
@@ -3586,11 +3499,9 @@
       <c r="C153" t="s">
         <v>50</v>
       </c>
-      <c r="D153" t="n">
-        <v>1.85</v>
-      </c>
+      <c r="D153"/>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F153" t="s">
         <v>51</v>
@@ -3606,11 +3517,9 @@
       <c r="C154" t="s">
         <v>50</v>
       </c>
-      <c r="D154" t="n">
-        <v>0.11</v>
-      </c>
+      <c r="D154"/>
       <c r="E154" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F154" t="s">
         <v>51</v>
@@ -3626,11 +3535,9 @@
       <c r="C155" t="s">
         <v>50</v>
       </c>
-      <c r="D155" t="n">
-        <v>0.51</v>
-      </c>
+      <c r="D155"/>
       <c r="E155" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F155" t="s">
         <v>51</v>
@@ -3646,11 +3553,9 @@
       <c r="C156" t="s">
         <v>50</v>
       </c>
-      <c r="D156" t="n">
-        <v>0.53</v>
-      </c>
+      <c r="D156"/>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
         <v>51</v>
@@ -3666,11 +3571,9 @@
       <c r="C157" t="s">
         <v>50</v>
       </c>
-      <c r="D157" t="n">
-        <v>3.22</v>
-      </c>
+      <c r="D157"/>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F157" t="s">
         <v>51</v>
@@ -3686,11 +3589,9 @@
       <c r="C158" t="s">
         <v>50</v>
       </c>
-      <c r="D158" t="n">
-        <v>0.49</v>
-      </c>
+      <c r="D158"/>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F158" t="s">
         <v>51</v>
@@ -3706,11 +3607,9 @@
       <c r="C159" t="s">
         <v>50</v>
       </c>
-      <c r="D159" t="n">
-        <v>0.13</v>
-      </c>
+      <c r="D159"/>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
         <v>51</v>
@@ -3726,11 +3625,9 @@
       <c r="C160" t="s">
         <v>50</v>
       </c>
-      <c r="D160" t="n">
-        <v>0.69</v>
-      </c>
+      <c r="D160"/>
       <c r="E160" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F160" t="s">
         <v>51</v>
@@ -3746,11 +3643,9 @@
       <c r="C161" t="s">
         <v>50</v>
       </c>
-      <c r="D161" t="n">
-        <v>0.7021</v>
-      </c>
+      <c r="D161"/>
       <c r="E161" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
         <v>51</v>
@@ -3767,13 +3662,13 @@
         <v>52</v>
       </c>
       <c r="D162" t="n">
-        <v>2211.54</v>
+        <v>19.97</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163">
@@ -3787,13 +3682,13 @@
         <v>52</v>
       </c>
       <c r="D163" t="n">
-        <v>3.45</v>
+        <v>1.05</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164">
@@ -3807,13 +3702,13 @@
         <v>52</v>
       </c>
       <c r="D164" t="n">
-        <v>8.84</v>
+        <v>1.52</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165">
@@ -3827,13 +3722,13 @@
         <v>52</v>
       </c>
       <c r="D165" t="n">
-        <v>172.15</v>
+        <v>1.23</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166">
@@ -3847,13 +3742,13 @@
         <v>52</v>
       </c>
       <c r="D166" t="n">
-        <v>15.09</v>
+        <v>10.4</v>
       </c>
       <c r="E166" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167">
@@ -3867,13 +3762,13 @@
         <v>52</v>
       </c>
       <c r="D167" t="n">
-        <v>38.67</v>
+        <v>6.13</v>
       </c>
       <c r="E167" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F167" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168">
@@ -3887,13 +3782,13 @@
         <v>52</v>
       </c>
       <c r="D168" t="n">
-        <v>127.33</v>
+        <v>0.86</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F168" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169">
@@ -3907,13 +3802,13 @@
         <v>52</v>
       </c>
       <c r="D169" t="n">
-        <v>46.77</v>
+        <v>0.78</v>
       </c>
       <c r="E169" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170">
@@ -3927,13 +3822,13 @@
         <v>52</v>
       </c>
       <c r="D170" t="n">
-        <v>46.46</v>
+        <v>4.94</v>
       </c>
       <c r="E170" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171">
@@ -3947,13 +3842,13 @@
         <v>52</v>
       </c>
       <c r="D171" t="n">
-        <v>1.32</v>
+        <v>19.73</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172">
@@ -3967,13 +3862,13 @@
         <v>52</v>
       </c>
       <c r="D172" t="n">
-        <v>66.29</v>
+        <v>3.62</v>
       </c>
       <c r="E172" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173">
@@ -3987,13 +3882,13 @@
         <v>52</v>
       </c>
       <c r="D173" t="n">
-        <v>91.87</v>
+        <v>4.77</v>
       </c>
       <c r="E173" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F173" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174">
@@ -4007,13 +3902,13 @@
         <v>52</v>
       </c>
       <c r="D174" t="n">
-        <v>173.46</v>
+        <v>0.86</v>
       </c>
       <c r="E174" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F174" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175">
@@ -4027,13 +3922,13 @@
         <v>52</v>
       </c>
       <c r="D175" t="n">
-        <v>16.64</v>
+        <v>3.4</v>
       </c>
       <c r="E175" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176">
@@ -4047,13 +3942,13 @@
         <v>52</v>
       </c>
       <c r="D176" t="n">
-        <v>81.61</v>
+        <v>4.96</v>
       </c>
       <c r="E176" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177">
@@ -4067,13 +3962,13 @@
         <v>52</v>
       </c>
       <c r="D177" t="n">
-        <v>296.71</v>
+        <v>13.85</v>
       </c>
       <c r="E177" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F177" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178">
@@ -4087,13 +3982,13 @@
         <v>52</v>
       </c>
       <c r="D178" t="n">
-        <v>222.87</v>
+        <v>12.33</v>
       </c>
       <c r="E178" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179">
@@ -4107,13 +4002,13 @@
         <v>52</v>
       </c>
       <c r="D179" t="n">
-        <v>103.3</v>
+        <v>6.17</v>
       </c>
       <c r="E179" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180">
@@ -4127,13 +4022,13 @@
         <v>52</v>
       </c>
       <c r="D180" t="n">
-        <v>222.14</v>
+        <v>0.53</v>
       </c>
       <c r="E180" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181">
@@ -4147,13 +4042,13 @@
         <v>52</v>
       </c>
       <c r="D181" t="n">
-        <v>75.39</v>
+        <v>0.28</v>
       </c>
       <c r="E181" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F181" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182">
@@ -4167,13 +4062,13 @@
         <v>52</v>
       </c>
       <c r="D182" t="n">
-        <v>84.52</v>
+        <v>182.56</v>
       </c>
       <c r="E182" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F182" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183">
@@ -4187,13 +4082,13 @@
         <v>52</v>
       </c>
       <c r="D183" t="n">
-        <v>18.47</v>
+        <v>48.69</v>
       </c>
       <c r="E183" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F183" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184">
@@ -4207,13 +4102,13 @@
         <v>52</v>
       </c>
       <c r="D184" t="n">
-        <v>96.15</v>
+        <v>1.13</v>
       </c>
       <c r="E184" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F184" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185">
@@ -4227,13 +4122,13 @@
         <v>52</v>
       </c>
       <c r="D185" t="n">
-        <v>75.76</v>
+        <v>2.2</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F185" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186">
@@ -4247,13 +4142,13 @@
         <v>52</v>
       </c>
       <c r="D186" t="n">
-        <v>43.18</v>
+        <v>0.75</v>
       </c>
       <c r="E186" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187">
@@ -4267,13 +4162,13 @@
         <v>52</v>
       </c>
       <c r="D187" t="n">
-        <v>27.58</v>
+        <v>2.19</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F187" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188">
@@ -4287,13 +4182,13 @@
         <v>52</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="E188" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F188" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189">
@@ -4306,14 +4201,12 @@
       <c r="C189" t="s">
         <v>52</v>
       </c>
-      <c r="D189" t="n">
-        <v>32.19</v>
-      </c>
+      <c r="D189"/>
       <c r="E189" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F189" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190">
@@ -4327,13 +4220,13 @@
         <v>52</v>
       </c>
       <c r="D190" t="n">
-        <v>11.14</v>
+        <v>6.16</v>
       </c>
       <c r="E190" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191">
@@ -4347,13 +4240,13 @@
         <v>52</v>
       </c>
       <c r="D191" t="n">
-        <v>0.37</v>
+        <v>1.12</v>
       </c>
       <c r="E191" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F191" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192">
@@ -4367,13 +4260,13 @@
         <v>52</v>
       </c>
       <c r="D192" t="n">
-        <v>4.03</v>
+        <v>2.55</v>
       </c>
       <c r="E192" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F192" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193">
@@ -4387,13 +4280,13 @@
         <v>52</v>
       </c>
       <c r="D193" t="n">
-        <v>7.29</v>
+        <v>0.12</v>
       </c>
       <c r="E193" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F193" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194">
@@ -4404,16 +4297,14 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>54</v>
-      </c>
-      <c r="D194" t="n">
-        <v>982.31</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D194"/>
       <c r="E194" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195">
@@ -4424,16 +4315,14 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D195"/>
       <c r="E195" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F195" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196">
@@ -4444,16 +4333,14 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>54</v>
-      </c>
-      <c r="D196" t="n">
-        <v>3.83</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D196"/>
       <c r="E196" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197">
@@ -4464,16 +4351,14 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>54</v>
-      </c>
-      <c r="D197" t="n">
-        <v>105.28</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D197"/>
       <c r="E197" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F197" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198">
@@ -4484,16 +4369,14 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>54</v>
-      </c>
-      <c r="D198" t="n">
-        <v>2.67</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D198"/>
       <c r="E198" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F198" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199">
@@ -4504,16 +4387,14 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>54</v>
-      </c>
-      <c r="D199" t="n">
-        <v>20.57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D199"/>
       <c r="E199" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200">
@@ -4524,16 +4405,14 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>54</v>
-      </c>
-      <c r="D200" t="n">
-        <v>23.9</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D200"/>
       <c r="E200" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F200" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201">
@@ -4544,16 +4423,14 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>54</v>
-      </c>
-      <c r="D201" t="n">
-        <v>26.6</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D201"/>
       <c r="E201" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F201" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202">
@@ -4564,16 +4441,14 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>54</v>
-      </c>
-      <c r="D202" t="n">
-        <v>26.03</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D202"/>
       <c r="E202" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F202" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="203">
@@ -4584,16 +4459,14 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>54</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.01</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D203"/>
       <c r="E203" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F203" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204">
@@ -4604,16 +4477,14 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>54</v>
-      </c>
-      <c r="D204" t="n">
-        <v>18.92</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D204"/>
       <c r="E204" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F204" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="205">
@@ -4624,16 +4495,14 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>54</v>
-      </c>
-      <c r="D205" t="n">
-        <v>8.61</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D205"/>
       <c r="E205" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F205" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206">
@@ -4644,16 +4513,14 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>54</v>
-      </c>
-      <c r="D206" t="n">
-        <v>39.87</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D206"/>
       <c r="E206" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F206" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="207">
@@ -4664,16 +4531,14 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>54</v>
-      </c>
-      <c r="D207" t="n">
-        <v>9.9</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D207"/>
       <c r="E207" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F207" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="208">
@@ -4684,16 +4549,14 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>54</v>
-      </c>
-      <c r="D208" t="n">
-        <v>82.1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D208"/>
       <c r="E208" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209">
@@ -4704,16 +4567,14 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>54</v>
-      </c>
-      <c r="D209" t="n">
-        <v>181.49</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D209"/>
       <c r="E209" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F209" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="210">
@@ -4724,16 +4585,14 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>54</v>
-      </c>
-      <c r="D210" t="n">
-        <v>54.73</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D210"/>
       <c r="E210" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F210" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211">
@@ -4744,16 +4603,14 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>54</v>
-      </c>
-      <c r="D211" t="n">
-        <v>25.37</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D211"/>
       <c r="E211" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F211" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212">
@@ -4764,16 +4621,14 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>54</v>
-      </c>
-      <c r="D212" t="n">
-        <v>130.14</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D212"/>
       <c r="E212" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="213">
@@ -4784,16 +4639,14 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>54</v>
-      </c>
-      <c r="D213" t="n">
-        <v>41.78</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D213"/>
       <c r="E213" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F213" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214">
@@ -4804,16 +4657,14 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>54</v>
-      </c>
-      <c r="D214" t="n">
-        <v>48.48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D214"/>
       <c r="E214" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F214" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="215">
@@ -4824,16 +4675,14 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>54</v>
-      </c>
-      <c r="D215" t="n">
-        <v>17.85</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D215"/>
       <c r="E215" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F215" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216">
@@ -4844,16 +4693,14 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>54</v>
-      </c>
-      <c r="D216" t="n">
-        <v>14.62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D216"/>
       <c r="E216" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F216" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="217">
@@ -4864,16 +4711,14 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>54</v>
-      </c>
-      <c r="D217" t="n">
-        <v>48.77</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D217"/>
       <c r="E217" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F217" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218">
@@ -4884,16 +4729,14 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>54</v>
-      </c>
-      <c r="D218" t="n">
-        <v>19.95</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D218"/>
       <c r="E218" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F218" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219">
@@ -4904,16 +4747,14 @@
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>54</v>
-      </c>
-      <c r="D219" t="n">
-        <v>20.44</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D219"/>
       <c r="E219" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F219" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220">
@@ -4924,16 +4765,14 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>54</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D220"/>
       <c r="E220" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F220" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221">
@@ -4944,16 +4783,14 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>54</v>
-      </c>
-      <c r="D221" t="n">
-        <v>5.39</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D221"/>
       <c r="E221" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F221" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222">
@@ -4964,16 +4801,14 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>54</v>
-      </c>
-      <c r="D222" t="n">
-        <v>2.39</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D222"/>
       <c r="E222" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F222" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223">
@@ -4984,16 +4819,14 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>54</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.05</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D223"/>
       <c r="E223" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F223" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="224">
@@ -5004,16 +4837,14 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>54</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0.48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D224"/>
       <c r="E224" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F224" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="225">
@@ -5024,16 +4855,14 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>54</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1.36</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D225"/>
       <c r="E225" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F225" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226">
@@ -5044,16 +4873,16 @@
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D226" t="n">
-        <v>1248.81</v>
+        <v>12.85</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
       </c>
       <c r="F226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="227">
@@ -5064,16 +4893,16 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D227" t="n">
-        <v>3.92</v>
+        <v>0.22</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="228">
@@ -5084,16 +4913,16 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D228" t="n">
-        <v>6.58</v>
+        <v>0.63</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
       </c>
       <c r="F228" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="229">
@@ -5104,16 +4933,16 @@
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D229" t="n">
-        <v>149.88</v>
+        <v>0.49</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
       </c>
       <c r="F229" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="230">
@@ -5124,16 +4953,16 @@
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D230" t="n">
-        <v>14.26</v>
+        <v>2.08</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
       </c>
       <c r="F230" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="231">
@@ -5144,16 +4973,16 @@
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D231" t="n">
-        <v>17.62</v>
+        <v>2.22</v>
       </c>
       <c r="E231" t="s">
         <v>9</v>
       </c>
       <c r="F231" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="232">
@@ -5164,16 +4993,16 @@
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D232" t="n">
-        <v>81.71</v>
+        <v>0.11</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
       </c>
       <c r="F232" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="233">
@@ -5184,16 +5013,16 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D233" t="n">
-        <v>20.11</v>
+        <v>0.42</v>
       </c>
       <c r="E233" t="s">
         <v>9</v>
       </c>
       <c r="F233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="234">
@@ -5204,16 +5033,16 @@
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D234" t="n">
-        <v>12.3</v>
+        <v>10.14</v>
       </c>
       <c r="E234" t="s">
         <v>9</v>
       </c>
       <c r="F234" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="235">
@@ -5224,16 +5053,16 @@
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D235" t="n">
-        <v>1.31</v>
+        <v>17.71</v>
       </c>
       <c r="E235" t="s">
         <v>9</v>
       </c>
       <c r="F235" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="236">
@@ -5244,16 +5073,16 @@
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D236" t="n">
-        <v>40.6</v>
+        <v>7.62</v>
       </c>
       <c r="E236" t="s">
         <v>9</v>
       </c>
       <c r="F236" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="237">
@@ -5264,16 +5093,16 @@
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D237" t="n">
-        <v>87.45</v>
+        <v>6.69</v>
       </c>
       <c r="E237" t="s">
         <v>9</v>
       </c>
       <c r="F237" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="238">
@@ -5284,16 +5113,16 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D238" t="n">
-        <v>114.23</v>
+        <v>8.47</v>
       </c>
       <c r="E238" t="s">
         <v>9</v>
       </c>
       <c r="F238" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="239">
@@ -5304,16 +5133,16 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D239" t="n">
-        <v>6.24</v>
+        <v>3.07</v>
       </c>
       <c r="E239" t="s">
         <v>9</v>
       </c>
       <c r="F239" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="240">
@@ -5324,16 +5153,16 @@
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D240" t="n">
-        <v>43.92</v>
+        <v>11.81</v>
       </c>
       <c r="E240" t="s">
         <v>9</v>
       </c>
       <c r="F240" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="241">
@@ -5344,16 +5173,16 @@
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D241" t="n">
-        <v>124.6</v>
+        <v>6.19</v>
       </c>
       <c r="E241" t="s">
         <v>9</v>
       </c>
       <c r="F241" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="242">
@@ -5364,16 +5193,16 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D242" t="n">
-        <v>109.36</v>
+        <v>1.09</v>
       </c>
       <c r="E242" t="s">
         <v>9</v>
       </c>
       <c r="F242" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="243">
@@ -5384,16 +5213,16 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D243" t="n">
-        <v>64.5</v>
+        <v>1.59</v>
       </c>
       <c r="E243" t="s">
         <v>9</v>
       </c>
       <c r="F243" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="244">
@@ -5404,16 +5233,16 @@
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D244" t="n">
-        <v>95.6</v>
+        <v>0.69</v>
       </c>
       <c r="E244" t="s">
         <v>9</v>
       </c>
       <c r="F244" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="245">
@@ -5424,16 +5253,16 @@
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D245" t="n">
-        <v>34.76</v>
+        <v>0.13</v>
       </c>
       <c r="E245" t="s">
         <v>9</v>
       </c>
       <c r="F245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="246">
@@ -5444,16 +5273,16 @@
         <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D246" t="n">
-        <v>26.87</v>
+        <v>127.8821</v>
       </c>
       <c r="E246" t="s">
         <v>9</v>
       </c>
       <c r="F246" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="247">
@@ -5464,16 +5293,16 @@
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D247" t="n">
-        <v>3.62</v>
+        <v>21.49</v>
       </c>
       <c r="E247" t="s">
         <v>9</v>
       </c>
       <c r="F247" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="248">
@@ -5484,16 +5313,16 @@
         <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D248" t="n">
-        <v>75.1</v>
+        <v>2.21</v>
       </c>
       <c r="E248" t="s">
         <v>9</v>
       </c>
       <c r="F248" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="249">
@@ -5504,16 +5333,16 @@
         <v>7</v>
       </c>
       <c r="C249" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D249" t="n">
-        <v>28.11</v>
+        <v>3.22</v>
       </c>
       <c r="E249" t="s">
         <v>9</v>
       </c>
       <c r="F249" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="250">
@@ -5524,16 +5353,16 @@
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D250" t="n">
-        <v>21.09</v>
+        <v>0.26</v>
       </c>
       <c r="E250" t="s">
         <v>9</v>
       </c>
       <c r="F250" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="251">
@@ -5544,16 +5373,16 @@
         <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D251" t="n">
-        <v>10.87</v>
+        <v>1.85</v>
       </c>
       <c r="E251" t="s">
         <v>9</v>
       </c>
       <c r="F251" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="252">
@@ -5564,16 +5393,16 @@
         <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D252" t="n">
-        <v>0.09</v>
+        <v>0.56</v>
       </c>
       <c r="E252" t="s">
         <v>9</v>
       </c>
       <c r="F252" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="253">
@@ -5584,16 +5413,16 @@
         <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D253" t="n">
-        <v>31.45</v>
+        <v>0.53</v>
       </c>
       <c r="E253" t="s">
         <v>9</v>
       </c>
       <c r="F253" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="254">
@@ -5604,16 +5433,16 @@
         <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D254" t="n">
-        <v>13.05</v>
+        <v>0.7021</v>
       </c>
       <c r="E254" t="s">
         <v>9</v>
       </c>
       <c r="F254" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="255">
@@ -5624,16 +5453,16 @@
         <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D255" t="n">
-        <v>0.23</v>
+        <v>0.51</v>
       </c>
       <c r="E255" t="s">
         <v>9</v>
       </c>
       <c r="F255" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="256">
@@ -5644,16 +5473,16 @@
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D256" t="n">
-        <v>2.67</v>
+        <v>1.88</v>
       </c>
       <c r="E256" t="s">
         <v>9</v>
       </c>
       <c r="F256" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="257">
@@ -5664,16 +5493,16 @@
         <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D257" t="n">
-        <v>6.71</v>
+        <v>0.45</v>
       </c>
       <c r="E257" t="s">
         <v>9</v>
       </c>
       <c r="F257" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="258">
@@ -5684,16 +5513,16 @@
         <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D258" t="n">
-        <v>1797.23</v>
+        <v>173.46</v>
       </c>
       <c r="E258" t="s">
         <v>9</v>
       </c>
       <c r="F258" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259">
@@ -5704,16 +5533,16 @@
         <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D259" t="n">
-        <v>0.73</v>
+        <v>3.45</v>
       </c>
       <c r="E259" t="s">
         <v>9</v>
       </c>
       <c r="F259" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="260">
@@ -5724,16 +5553,16 @@
         <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D260" t="n">
-        <v>2.31</v>
+        <v>16.64</v>
       </c>
       <c r="E260" t="s">
         <v>9</v>
       </c>
       <c r="F260" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261">
@@ -5744,16 +5573,16 @@
         <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D261" t="n">
-        <v>146.27</v>
+        <v>11.14</v>
       </c>
       <c r="E261" t="s">
         <v>9</v>
       </c>
       <c r="F261" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262">
@@ -5764,16 +5593,16 @@
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D262" t="n">
-        <v>33.38</v>
+        <v>75.39</v>
       </c>
       <c r="E262" t="s">
         <v>9</v>
       </c>
       <c r="F262" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263">
@@ -5784,16 +5613,16 @@
         <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D263" t="n">
-        <v>43.93</v>
+        <v>84.52</v>
       </c>
       <c r="E263" t="s">
         <v>9</v>
       </c>
       <c r="F263" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="264">
@@ -5804,16 +5633,16 @@
         <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D264" t="n">
-        <v>30.84</v>
+        <v>43.18</v>
       </c>
       <c r="E264" t="s">
         <v>9</v>
       </c>
       <c r="F264" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265">
@@ -5824,16 +5653,16 @@
         <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D265" t="n">
-        <v>66.07</v>
+        <v>18.47</v>
       </c>
       <c r="E265" t="s">
         <v>9</v>
       </c>
       <c r="F265" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266">
@@ -5844,16 +5673,16 @@
         <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D266" t="n">
-        <v>66.45</v>
+        <v>172.15</v>
       </c>
       <c r="E266" t="s">
         <v>9</v>
       </c>
       <c r="F266" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267">
@@ -5864,16 +5693,16 @@
         <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D267" t="n">
-        <v>0.45</v>
+        <v>222.87</v>
       </c>
       <c r="E267" t="s">
         <v>9</v>
       </c>
       <c r="F267" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268">
@@ -5884,16 +5713,16 @@
         <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D268" t="n">
-        <v>98.71</v>
+        <v>46.46</v>
       </c>
       <c r="E268" t="s">
         <v>9</v>
       </c>
       <c r="F268" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269">
@@ -5904,16 +5733,16 @@
         <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D269" t="n">
-        <v>16.27</v>
+        <v>103.3</v>
       </c>
       <c r="E269" t="s">
         <v>9</v>
       </c>
       <c r="F269" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270">
@@ -5924,16 +5753,16 @@
         <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D270" t="n">
-        <v>232.78</v>
+        <v>222.14</v>
       </c>
       <c r="E270" t="s">
         <v>9</v>
       </c>
       <c r="F270" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271">
@@ -5944,16 +5773,16 @@
         <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D271" t="n">
-        <v>10.82</v>
+        <v>46.77</v>
       </c>
       <c r="E271" t="s">
         <v>9</v>
       </c>
       <c r="F271" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272">
@@ -5964,16 +5793,16 @@
         <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D272" t="n">
-        <v>53.32</v>
+        <v>66.29</v>
       </c>
       <c r="E272" t="s">
         <v>9</v>
       </c>
       <c r="F272" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273">
@@ -5984,16 +5813,16 @@
         <v>7</v>
       </c>
       <c r="C273" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D273" t="n">
-        <v>202.97</v>
+        <v>81.61</v>
       </c>
       <c r="E273" t="s">
         <v>9</v>
       </c>
       <c r="F273" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274">
@@ -6004,16 +5833,16 @@
         <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D274" t="n">
-        <v>353.94</v>
+        <v>127.33</v>
       </c>
       <c r="E274" t="s">
         <v>9</v>
       </c>
       <c r="F274" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="275">
@@ -6024,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D275" t="n">
-        <v>111.56</v>
+        <v>38.67</v>
       </c>
       <c r="E275" t="s">
         <v>9</v>
       </c>
       <c r="F275" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="276">
@@ -6044,16 +5873,16 @@
         <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D276" t="n">
-        <v>21.96</v>
+        <v>4.03</v>
       </c>
       <c r="E276" t="s">
         <v>9</v>
       </c>
       <c r="F276" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="277">
@@ -6064,16 +5893,16 @@
         <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D277" t="n">
-        <v>32.73</v>
+        <v>0.37</v>
       </c>
       <c r="E277" t="s">
         <v>9</v>
       </c>
       <c r="F277" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="278">
@@ -6084,16 +5913,16 @@
         <v>7</v>
       </c>
       <c r="C278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D278" t="n">
-        <v>42.58</v>
+        <v>2211.54</v>
       </c>
       <c r="E278" t="s">
         <v>9</v>
       </c>
       <c r="F278" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="279">
@@ -6104,16 +5933,16 @@
         <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D279" t="n">
-        <v>5.02</v>
+        <v>296.71</v>
       </c>
       <c r="E279" t="s">
         <v>9</v>
       </c>
       <c r="F279" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="280">
@@ -6124,16 +5953,16 @@
         <v>7</v>
       </c>
       <c r="C280" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D280" t="n">
-        <v>0.77</v>
+        <v>15.09</v>
       </c>
       <c r="E280" t="s">
         <v>9</v>
       </c>
       <c r="F280" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281">
@@ -6144,16 +5973,16 @@
         <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D281" t="n">
-        <v>12.55</v>
+        <v>32.19</v>
       </c>
       <c r="E281" t="s">
         <v>9</v>
       </c>
       <c r="F281" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282">
@@ -6164,16 +5993,16 @@
         <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D282" t="n">
-        <v>7.31</v>
+        <v>1.32</v>
       </c>
       <c r="E282" t="s">
         <v>9</v>
       </c>
       <c r="F282" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283">
@@ -6184,16 +6013,16 @@
         <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D283" t="n">
-        <v>37.12</v>
+        <v>75.76</v>
       </c>
       <c r="E283" t="s">
         <v>9</v>
       </c>
       <c r="F283" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284">
@@ -6204,16 +6033,16 @@
         <v>7</v>
       </c>
       <c r="C284" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D284" t="n">
-        <v>13.65</v>
+        <v>8.84</v>
       </c>
       <c r="E284" t="s">
         <v>9</v>
       </c>
       <c r="F284" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="285">
@@ -6224,16 +6053,16 @@
         <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D285" t="n">
-        <v>18.48</v>
+        <v>0.5</v>
       </c>
       <c r="E285" t="s">
         <v>9</v>
       </c>
       <c r="F285" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="286">
@@ -6244,16 +6073,16 @@
         <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D286" t="n">
-        <v>54.85</v>
+        <v>7.29</v>
       </c>
       <c r="E286" t="s">
         <v>9</v>
       </c>
       <c r="F286" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287">
@@ -6264,16 +6093,16 @@
         <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D287" t="n">
-        <v>27.71</v>
+        <v>27.58</v>
       </c>
       <c r="E287" t="s">
         <v>9</v>
       </c>
       <c r="F287" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288">
@@ -6284,16 +6113,16 @@
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D288" t="n">
-        <v>18.21</v>
+        <v>91.87</v>
       </c>
       <c r="E288" t="s">
         <v>9</v>
       </c>
       <c r="F288" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289">
@@ -6304,16 +6133,16 @@
         <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D289" t="n">
-        <v>33.49</v>
+        <v>96.15</v>
       </c>
       <c r="E289" t="s">
         <v>9</v>
       </c>
       <c r="F289" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290">
@@ -6324,16 +6153,16 @@
         <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D290" t="n">
-        <v>3080.622</v>
+        <v>39.87</v>
       </c>
       <c r="E290" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F290" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="291">
@@ -6344,16 +6173,16 @@
         <v>7</v>
       </c>
       <c r="C291" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D291" t="n">
-        <v>0.72</v>
+        <v>0.2</v>
       </c>
       <c r="E291" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F291" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="292">
@@ -6364,16 +6193,16 @@
         <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D292" t="n">
-        <v>3.77</v>
+        <v>9.9</v>
       </c>
       <c r="E292" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F292" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="293">
@@ -6384,16 +6213,16 @@
         <v>7</v>
       </c>
       <c r="C293" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D293" t="n">
-        <v>195.46</v>
+        <v>2.39</v>
       </c>
       <c r="E293" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F293" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="294">
@@ -6404,16 +6233,16 @@
         <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D294" t="n">
-        <v>46.24</v>
+        <v>41.78</v>
       </c>
       <c r="E294" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F294" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="295">
@@ -6424,16 +6253,16 @@
         <v>7</v>
       </c>
       <c r="C295" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D295" t="n">
-        <v>89.54</v>
+        <v>48.48</v>
       </c>
       <c r="E295" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F295" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="296">
@@ -6444,16 +6273,16 @@
         <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D296" t="n">
-        <v>47.24</v>
+        <v>19.95</v>
       </c>
       <c r="E296" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F296" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="297">
@@ -6464,16 +6293,16 @@
         <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D297" t="n">
-        <v>186.18</v>
+        <v>17.85</v>
       </c>
       <c r="E297" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F297" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="298">
@@ -6484,16 +6313,16 @@
         <v>7</v>
       </c>
       <c r="C298" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D298" t="n">
-        <v>119.62</v>
+        <v>105.28</v>
       </c>
       <c r="E298" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F298" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="299">
@@ -6504,16 +6333,16 @@
         <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D299" t="n">
-        <v>0.38</v>
+        <v>54.73</v>
       </c>
       <c r="E299" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F299" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="300">
@@ -6524,16 +6353,16 @@
         <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D300" t="n">
-        <v>155.64</v>
+        <v>26.03</v>
       </c>
       <c r="E300" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F300" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301">
@@ -6544,16 +6373,16 @@
         <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D301" t="n">
-        <v>17.23</v>
+        <v>25.37</v>
       </c>
       <c r="E301" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F301" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="302">
@@ -6564,16 +6393,16 @@
         <v>7</v>
       </c>
       <c r="C302" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D302" t="n">
-        <v>539.18</v>
+        <v>130.14</v>
       </c>
       <c r="E302" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F302" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="303">
@@ -6584,16 +6413,16 @@
         <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D303" t="n">
-        <v>12.97</v>
+        <v>26.6</v>
       </c>
       <c r="E303" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F303" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="304">
@@ -6604,16 +6433,16 @@
         <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D304" t="n">
-        <v>37.69</v>
+        <v>18.92</v>
       </c>
       <c r="E304" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F304" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="305">
@@ -6624,16 +6453,16 @@
         <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D305" t="n">
-        <v>322.3</v>
+        <v>82.1</v>
       </c>
       <c r="E305" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F305" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="306">
@@ -6644,16 +6473,16 @@
         <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D306" t="n">
-        <v>679.87</v>
+        <v>23.9</v>
       </c>
       <c r="E306" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F306" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="307">
@@ -6664,16 +6493,16 @@
         <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D307" t="n">
-        <v>214.51</v>
+        <v>20.57</v>
       </c>
       <c r="E307" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F307" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="308">
@@ -6684,16 +6513,16 @@
         <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D308" t="n">
-        <v>10.45</v>
+        <v>0.48</v>
       </c>
       <c r="E308" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F308" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="309">
@@ -6704,16 +6533,16 @@
         <v>7</v>
       </c>
       <c r="C309" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D309" t="n">
-        <v>36.73</v>
+        <v>0.05</v>
       </c>
       <c r="E309" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F309" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="310">
@@ -6724,16 +6553,16 @@
         <v>7</v>
       </c>
       <c r="C310" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D310" t="n">
-        <v>58.79</v>
+        <v>982.31</v>
       </c>
       <c r="E310" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F310" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="311">
@@ -6744,16 +6573,16 @@
         <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D311" t="n">
-        <v>4.84</v>
+        <v>181.49</v>
       </c>
       <c r="E311" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F311" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="312">
@@ -6764,16 +6593,16 @@
         <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D312" t="n">
-        <v>0.26</v>
+        <v>2.67</v>
       </c>
       <c r="E312" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F312" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="313">
@@ -6784,16 +6613,16 @@
         <v>7</v>
       </c>
       <c r="C313" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D313" t="n">
-        <v>11.85</v>
+        <v>5.39</v>
       </c>
       <c r="E313" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F313" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="314">
@@ -6804,16 +6633,16 @@
         <v>7</v>
       </c>
       <c r="C314" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D314" t="n">
-        <v>2.88</v>
+        <v>0.01</v>
       </c>
       <c r="E314" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F314" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="315">
@@ -6824,16 +6653,16 @@
         <v>7</v>
       </c>
       <c r="C315" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D315" t="n">
-        <v>32.08</v>
+        <v>48.77</v>
       </c>
       <c r="E315" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F315" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="316">
@@ -6844,16 +6673,16 @@
         <v>7</v>
       </c>
       <c r="C316" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D316" t="n">
-        <v>8.58</v>
+        <v>3.83</v>
       </c>
       <c r="E316" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F316" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="317">
@@ -6864,16 +6693,16 @@
         <v>7</v>
       </c>
       <c r="C317" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D317" t="n">
-        <v>28.56</v>
+        <v>0.53</v>
       </c>
       <c r="E317" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F317" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="318">
@@ -6884,16 +6713,16 @@
         <v>7</v>
       </c>
       <c r="C318" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D318" t="n">
-        <v>105.18</v>
+        <v>1.36</v>
       </c>
       <c r="E318" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F318" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="319">
@@ -6904,16 +6733,16 @@
         <v>7</v>
       </c>
       <c r="C319" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D319" t="n">
-        <v>24.46</v>
+        <v>20.44</v>
       </c>
       <c r="E319" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F319" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="320">
@@ -6924,16 +6753,16 @@
         <v>7</v>
       </c>
       <c r="C320" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D320" t="n">
-        <v>23.962</v>
+        <v>8.61</v>
       </c>
       <c r="E320" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F320" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="321">
@@ -6944,16 +6773,16 @@
         <v>7</v>
       </c>
       <c r="C321" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D321" t="n">
-        <v>63.46</v>
+        <v>14.62</v>
       </c>
       <c r="E321" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F321" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="322">
@@ -6964,13 +6793,13 @@
         <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D322" t="n">
-        <v>102559</v>
+        <v>114.23</v>
       </c>
       <c r="E322" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F322" t="s">
         <v>64</v>
@@ -6984,13 +6813,13 @@
         <v>7</v>
       </c>
       <c r="C323" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D323" t="n">
-        <v>241.1</v>
+        <v>3.92</v>
       </c>
       <c r="E323" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F323" t="s">
         <v>64</v>
@@ -7004,13 +6833,13 @@
         <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D324" t="n">
-        <v>568.1</v>
+        <v>6.24</v>
       </c>
       <c r="E324" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F324" t="s">
         <v>64</v>
@@ -7024,13 +6853,13 @@
         <v>7</v>
       </c>
       <c r="C325" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D325" t="n">
-        <v>10553.8</v>
+        <v>13.05</v>
       </c>
       <c r="E325" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F325" t="s">
         <v>64</v>
@@ -7044,13 +6873,13 @@
         <v>7</v>
       </c>
       <c r="C326" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D326" t="n">
-        <v>3056.1</v>
+        <v>34.76</v>
       </c>
       <c r="E326" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F326" t="s">
         <v>64</v>
@@ -7064,13 +6893,13 @@
         <v>7</v>
       </c>
       <c r="C327" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D327" t="n">
-        <v>3280.6</v>
+        <v>26.87</v>
       </c>
       <c r="E327" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F327" t="s">
         <v>64</v>
@@ -7084,13 +6913,13 @@
         <v>7</v>
       </c>
       <c r="C328" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D328" t="n">
-        <v>2526.9</v>
+        <v>21.09</v>
       </c>
       <c r="E328" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F328" t="s">
         <v>64</v>
@@ -7104,13 +6933,13 @@
         <v>7</v>
       </c>
       <c r="C329" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D329" t="n">
-        <v>2554.7</v>
+        <v>3.62</v>
       </c>
       <c r="E329" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F329" t="s">
         <v>64</v>
@@ -7124,13 +6953,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D330" t="n">
-        <v>4552.9</v>
+        <v>149.88</v>
       </c>
       <c r="E330" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F330" t="s">
         <v>64</v>
@@ -7144,13 +6973,13 @@
         <v>7</v>
       </c>
       <c r="C331" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D331" t="n">
-        <v>112.7</v>
+        <v>109.36</v>
       </c>
       <c r="E331" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F331" t="s">
         <v>64</v>
@@ -7164,13 +6993,13 @@
         <v>7</v>
       </c>
       <c r="C332" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D332" t="n">
-        <v>4214.6</v>
+        <v>12.3</v>
       </c>
       <c r="E332" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F332" t="s">
         <v>64</v>
@@ -7184,13 +7013,13 @@
         <v>7</v>
       </c>
       <c r="C333" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D333" t="n">
-        <v>2489.4</v>
+        <v>64.5</v>
       </c>
       <c r="E333" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F333" t="s">
         <v>64</v>
@@ -7204,13 +7033,13 @@
         <v>7</v>
       </c>
       <c r="C334" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D334" t="n">
-        <v>5902.8</v>
+        <v>95.6</v>
       </c>
       <c r="E334" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F334" t="s">
         <v>64</v>
@@ -7224,13 +7053,13 @@
         <v>7</v>
       </c>
       <c r="C335" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D335" t="n">
-        <v>1286.8</v>
+        <v>20.11</v>
       </c>
       <c r="E335" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F335" t="s">
         <v>64</v>
@@ -7244,13 +7073,13 @@
         <v>7</v>
       </c>
       <c r="C336" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D336" t="n">
-        <v>4599.7</v>
+        <v>40.6</v>
       </c>
       <c r="E336" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F336" t="s">
         <v>64</v>
@@ -7264,13 +7093,13 @@
         <v>7</v>
       </c>
       <c r="C337" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D337" t="n">
-        <v>12419.9</v>
+        <v>43.92</v>
       </c>
       <c r="E337" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F337" t="s">
         <v>64</v>
@@ -7284,13 +7113,13 @@
         <v>7</v>
       </c>
       <c r="C338" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D338" t="n">
-        <v>10872.7</v>
+        <v>81.71</v>
       </c>
       <c r="E338" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F338" t="s">
         <v>64</v>
@@ -7304,13 +7133,13 @@
         <v>7</v>
       </c>
       <c r="C339" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D339" t="n">
-        <v>3842.2</v>
+        <v>17.62</v>
       </c>
       <c r="E339" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F339" t="s">
         <v>64</v>
@@ -7324,13 +7153,13 @@
         <v>7</v>
       </c>
       <c r="C340" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D340" t="n">
-        <v>5189.2</v>
+        <v>2.67</v>
       </c>
       <c r="E340" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F340" t="s">
         <v>64</v>
@@ -7344,13 +7173,13 @@
         <v>7</v>
       </c>
       <c r="C341" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D341" t="n">
-        <v>2496.7</v>
+        <v>0.23</v>
       </c>
       <c r="E341" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F341" t="s">
         <v>64</v>
@@ -7364,13 +7193,13 @@
         <v>7</v>
       </c>
       <c r="C342" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D342" t="n">
-        <v>3195.9</v>
+        <v>1248.81</v>
       </c>
       <c r="E342" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F342" t="s">
         <v>64</v>
@@ -7384,13 +7213,13 @@
         <v>7</v>
       </c>
       <c r="C343" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D343" t="n">
-        <v>479.7</v>
+        <v>124.6</v>
       </c>
       <c r="E343" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F343" t="s">
         <v>64</v>
@@ -7404,13 +7233,13 @@
         <v>7</v>
       </c>
       <c r="C344" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D344" t="n">
-        <v>1162</v>
+        <v>14.26</v>
       </c>
       <c r="E344" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F344" t="s">
         <v>64</v>
@@ -7424,13 +7253,13 @@
         <v>7</v>
       </c>
       <c r="C345" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D345" t="n">
-        <v>3694</v>
+        <v>31.45</v>
       </c>
       <c r="E345" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F345" t="s">
         <v>64</v>
@@ -7444,13 +7273,13 @@
         <v>7</v>
       </c>
       <c r="C346" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D346" t="n">
-        <v>2106.7</v>
+        <v>1.31</v>
       </c>
       <c r="E346" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F346" t="s">
         <v>64</v>
@@ -7464,13 +7293,13 @@
         <v>7</v>
       </c>
       <c r="C347" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D347" t="n">
-        <v>2874.5</v>
+        <v>28.11</v>
       </c>
       <c r="E347" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F347" t="s">
         <v>64</v>
@@ -7484,13 +7313,13 @@
         <v>7</v>
       </c>
       <c r="C348" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D348" t="n">
-        <v>465</v>
+        <v>6.58</v>
       </c>
       <c r="E348" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F348" t="s">
         <v>64</v>
@@ -7504,13 +7333,13 @@
         <v>7</v>
       </c>
       <c r="C349" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D349" t="n">
-        <v>2350.2</v>
+        <v>0.09</v>
       </c>
       <c r="E349" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F349" t="s">
         <v>64</v>
@@ -7524,13 +7353,13 @@
         <v>7</v>
       </c>
       <c r="C350" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D350" t="n">
-        <v>2279.1</v>
+        <v>6.71</v>
       </c>
       <c r="E350" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F350" t="s">
         <v>64</v>
@@ -7544,13 +7373,13 @@
         <v>7</v>
       </c>
       <c r="C351" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D351" t="n">
-        <v>435</v>
+        <v>10.87</v>
       </c>
       <c r="E351" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F351" t="s">
         <v>64</v>
@@ -7564,13 +7393,13 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D352" t="n">
-        <v>787.3</v>
+        <v>87.45</v>
       </c>
       <c r="E352" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F352" t="s">
         <v>64</v>
@@ -7584,16 +7413,1936 @@
         <v>7</v>
       </c>
       <c r="C353" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D353" t="n">
-        <v>1968.9</v>
+        <v>75.1</v>
       </c>
       <c r="E353" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F353" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" t="s">
+        <v>65</v>
+      </c>
+      <c r="D354" t="n">
+        <v>232.78</v>
+      </c>
+      <c r="E354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F354" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>11</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>65</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E355" t="s">
+        <v>9</v>
+      </c>
+      <c r="F355" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>12</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>65</v>
+      </c>
+      <c r="D356" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="E356" t="s">
+        <v>9</v>
+      </c>
+      <c r="F356" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>13</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>65</v>
+      </c>
+      <c r="D357" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="E357" t="s">
+        <v>9</v>
+      </c>
+      <c r="F357" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>14</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" t="s">
+        <v>65</v>
+      </c>
+      <c r="D358" t="n">
+        <v>32.73</v>
+      </c>
+      <c r="E358" t="s">
+        <v>9</v>
+      </c>
+      <c r="F358" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>15</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" t="s">
+        <v>65</v>
+      </c>
+      <c r="D359" t="n">
+        <v>42.58</v>
+      </c>
+      <c r="E359" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>16</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" t="s">
+        <v>65</v>
+      </c>
+      <c r="D360" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>17</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>65</v>
+      </c>
+      <c r="D361" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F361" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>18</v>
+      </c>
+      <c r="B362" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" t="s">
+        <v>65</v>
+      </c>
+      <c r="D362" t="n">
+        <v>146.27</v>
+      </c>
+      <c r="E362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>19</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" t="s">
+        <v>65</v>
+      </c>
+      <c r="D363" t="n">
+        <v>353.94</v>
+      </c>
+      <c r="E363" t="s">
+        <v>9</v>
+      </c>
+      <c r="F363" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>20</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" t="s">
+        <v>65</v>
+      </c>
+      <c r="D364" t="n">
+        <v>66.45</v>
+      </c>
+      <c r="E364" t="s">
+        <v>9</v>
+      </c>
+      <c r="F364" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>21</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" t="s">
+        <v>65</v>
+      </c>
+      <c r="D365" t="n">
+        <v>111.56</v>
+      </c>
+      <c r="E365" t="s">
+        <v>9</v>
+      </c>
+      <c r="F365" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>22</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" t="s">
+        <v>65</v>
+      </c>
+      <c r="D366" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="E366" t="s">
+        <v>9</v>
+      </c>
+      <c r="F366" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>23</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" t="s">
+        <v>65</v>
+      </c>
+      <c r="D367" t="n">
+        <v>66.07</v>
+      </c>
+      <c r="E367" t="s">
+        <v>9</v>
+      </c>
+      <c r="F367" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>24</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" t="s">
+        <v>65</v>
+      </c>
+      <c r="D368" t="n">
+        <v>98.71</v>
+      </c>
+      <c r="E368" t="s">
+        <v>9</v>
+      </c>
+      <c r="F368" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>25</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" t="s">
+        <v>65</v>
+      </c>
+      <c r="D369" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="E369" t="s">
+        <v>9</v>
+      </c>
+      <c r="F369" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>26</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" t="s">
+        <v>65</v>
+      </c>
+      <c r="D370" t="n">
+        <v>30.84</v>
+      </c>
+      <c r="E370" t="s">
+        <v>9</v>
+      </c>
+      <c r="F370" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>27</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" t="s">
+        <v>65</v>
+      </c>
+      <c r="D371" t="n">
+        <v>43.93</v>
+      </c>
+      <c r="E371" t="s">
+        <v>9</v>
+      </c>
+      <c r="F371" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>28</v>
+      </c>
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" t="s">
+        <v>65</v>
+      </c>
+      <c r="D372" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="E372" t="s">
+        <v>9</v>
+      </c>
+      <c r="F372" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>29</v>
+      </c>
+      <c r="B373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" t="s">
+        <v>65</v>
+      </c>
+      <c r="D373" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="E373" t="s">
+        <v>9</v>
+      </c>
+      <c r="F373" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>30</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>65</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1797.23</v>
+      </c>
+      <c r="E374" t="s">
+        <v>9</v>
+      </c>
+      <c r="F374" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>31</v>
+      </c>
+      <c r="B375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" t="s">
+        <v>65</v>
+      </c>
+      <c r="D375" t="n">
+        <v>202.97</v>
+      </c>
+      <c r="E375" t="s">
+        <v>9</v>
+      </c>
+      <c r="F375" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>32</v>
+      </c>
+      <c r="B376" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" t="s">
+        <v>65</v>
+      </c>
+      <c r="D376" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="E376" t="s">
+        <v>9</v>
+      </c>
+      <c r="F376" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>33</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" t="s">
+        <v>65</v>
+      </c>
+      <c r="D377" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="E377" t="s">
+        <v>9</v>
+      </c>
+      <c r="F377" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>34</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" t="s">
+        <v>65</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F378" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" t="s">
+        <v>65</v>
+      </c>
+      <c r="D379" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="E379" t="s">
+        <v>9</v>
+      </c>
+      <c r="F379" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>36</v>
+      </c>
+      <c r="B380" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>65</v>
+      </c>
+      <c r="D380" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="E380" t="s">
+        <v>9</v>
+      </c>
+      <c r="F380" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>37</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" t="s">
+        <v>65</v>
+      </c>
+      <c r="D381" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E381" t="s">
+        <v>9</v>
+      </c>
+      <c r="F381" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>38</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" t="s">
+        <v>65</v>
+      </c>
+      <c r="D382" t="n">
+        <v>33.49</v>
+      </c>
+      <c r="E382" t="s">
+        <v>9</v>
+      </c>
+      <c r="F382" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>39</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>65</v>
+      </c>
+      <c r="D383" t="n">
+        <v>37.12</v>
+      </c>
+      <c r="E383" t="s">
+        <v>9</v>
+      </c>
+      <c r="F383" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>40</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>65</v>
+      </c>
+      <c r="D384" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="E384" t="s">
+        <v>9</v>
+      </c>
+      <c r="F384" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>41</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" t="s">
+        <v>65</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E385" t="s">
+        <v>9</v>
+      </c>
+      <c r="F385" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386" t="s">
+        <v>67</v>
+      </c>
+      <c r="D386" t="n">
+        <v>539.18</v>
+      </c>
+      <c r="E386" t="s">
+        <v>43</v>
+      </c>
+      <c r="F386" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" t="s">
+        <v>67</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E387" t="s">
+        <v>43</v>
+      </c>
+      <c r="F387" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>12</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" t="s">
+        <v>67</v>
+      </c>
+      <c r="D388" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="E388" t="s">
+        <v>43</v>
+      </c>
+      <c r="F388" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>13</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" t="s">
+        <v>67</v>
+      </c>
+      <c r="D389" t="n">
+        <v>105.18</v>
+      </c>
+      <c r="E389" t="s">
+        <v>43</v>
+      </c>
+      <c r="F389" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>14</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" t="s">
+        <v>67</v>
+      </c>
+      <c r="D390" t="n">
+        <v>36.73</v>
+      </c>
+      <c r="E390" t="s">
+        <v>43</v>
+      </c>
+      <c r="F390" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>15</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" t="s">
+        <v>67</v>
+      </c>
+      <c r="D391" t="n">
+        <v>58.79</v>
+      </c>
+      <c r="E391" t="s">
+        <v>43</v>
+      </c>
+      <c r="F391" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>16</v>
+      </c>
+      <c r="B392" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392" t="s">
+        <v>67</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E392" t="s">
+        <v>43</v>
+      </c>
+      <c r="F392" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>17</v>
+      </c>
+      <c r="B393" t="s">
+        <v>7</v>
+      </c>
+      <c r="C393" t="s">
+        <v>67</v>
+      </c>
+      <c r="D393" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E393" t="s">
+        <v>43</v>
+      </c>
+      <c r="F393" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" t="s">
+        <v>7</v>
+      </c>
+      <c r="C394" t="s">
+        <v>67</v>
+      </c>
+      <c r="D394" t="n">
+        <v>195.46</v>
+      </c>
+      <c r="E394" t="s">
+        <v>43</v>
+      </c>
+      <c r="F394" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>19</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395" t="s">
+        <v>67</v>
+      </c>
+      <c r="D395" t="n">
+        <v>679.87</v>
+      </c>
+      <c r="E395" t="s">
+        <v>43</v>
+      </c>
+      <c r="F395" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>20</v>
+      </c>
+      <c r="B396" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396" t="s">
+        <v>67</v>
+      </c>
+      <c r="D396" t="n">
+        <v>119.62</v>
+      </c>
+      <c r="E396" t="s">
+        <v>43</v>
+      </c>
+      <c r="F396" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>21</v>
+      </c>
+      <c r="B397" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397" t="s">
+        <v>67</v>
+      </c>
+      <c r="D397" t="n">
+        <v>214.51</v>
+      </c>
+      <c r="E397" t="s">
+        <v>43</v>
+      </c>
+      <c r="F397" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>22</v>
+      </c>
+      <c r="B398" t="s">
+        <v>7</v>
+      </c>
+      <c r="C398" t="s">
+        <v>67</v>
+      </c>
+      <c r="D398" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="E398" t="s">
+        <v>43</v>
+      </c>
+      <c r="F398" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>23</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399" t="s">
+        <v>67</v>
+      </c>
+      <c r="D399" t="n">
+        <v>186.18</v>
+      </c>
+      <c r="E399" t="s">
+        <v>43</v>
+      </c>
+      <c r="F399" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>24</v>
+      </c>
+      <c r="B400" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400" t="s">
+        <v>67</v>
+      </c>
+      <c r="D400" t="n">
+        <v>155.64</v>
+      </c>
+      <c r="E400" t="s">
+        <v>43</v>
+      </c>
+      <c r="F400" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>25</v>
+      </c>
+      <c r="B401" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" t="s">
+        <v>67</v>
+      </c>
+      <c r="D401" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="E401" t="s">
+        <v>43</v>
+      </c>
+      <c r="F401" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>26</v>
+      </c>
+      <c r="B402" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402" t="s">
+        <v>67</v>
+      </c>
+      <c r="D402" t="n">
+        <v>47.24</v>
+      </c>
+      <c r="E402" t="s">
+        <v>43</v>
+      </c>
+      <c r="F402" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>27</v>
+      </c>
+      <c r="B403" t="s">
+        <v>7</v>
+      </c>
+      <c r="C403" t="s">
+        <v>67</v>
+      </c>
+      <c r="D403" t="n">
+        <v>89.54</v>
+      </c>
+      <c r="E403" t="s">
+        <v>43</v>
+      </c>
+      <c r="F403" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>28</v>
+      </c>
+      <c r="B404" t="s">
+        <v>7</v>
+      </c>
+      <c r="C404" t="s">
+        <v>67</v>
+      </c>
+      <c r="D404" t="n">
+        <v>23.962</v>
+      </c>
+      <c r="E404" t="s">
+        <v>43</v>
+      </c>
+      <c r="F404" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>29</v>
+      </c>
+      <c r="B405" t="s">
+        <v>7</v>
+      </c>
+      <c r="C405" t="s">
+        <v>67</v>
+      </c>
+      <c r="D405" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="E405" t="s">
+        <v>43</v>
+      </c>
+      <c r="F405" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>30</v>
+      </c>
+      <c r="B406" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406" t="s">
+        <v>67</v>
+      </c>
+      <c r="D406" t="n">
+        <v>3080.622</v>
+      </c>
+      <c r="E406" t="s">
+        <v>43</v>
+      </c>
+      <c r="F406" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>31</v>
+      </c>
+      <c r="B407" t="s">
+        <v>7</v>
+      </c>
+      <c r="C407" t="s">
+        <v>67</v>
+      </c>
+      <c r="D407" t="n">
+        <v>322.3</v>
+      </c>
+      <c r="E407" t="s">
+        <v>43</v>
+      </c>
+      <c r="F407" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>32</v>
+      </c>
+      <c r="B408" t="s">
+        <v>7</v>
+      </c>
+      <c r="C408" t="s">
+        <v>67</v>
+      </c>
+      <c r="D408" t="n">
+        <v>46.24</v>
+      </c>
+      <c r="E408" t="s">
+        <v>43</v>
+      </c>
+      <c r="F408" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>33</v>
+      </c>
+      <c r="B409" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" t="s">
+        <v>67</v>
+      </c>
+      <c r="D409" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="E409" t="s">
+        <v>43</v>
+      </c>
+      <c r="F409" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>34</v>
+      </c>
+      <c r="B410" t="s">
+        <v>7</v>
+      </c>
+      <c r="C410" t="s">
+        <v>67</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E410" t="s">
+        <v>43</v>
+      </c>
+      <c r="F410" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" t="s">
+        <v>67</v>
+      </c>
+      <c r="D411" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E411" t="s">
+        <v>43</v>
+      </c>
+      <c r="F411" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>36</v>
+      </c>
+      <c r="B412" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412" t="s">
+        <v>67</v>
+      </c>
+      <c r="D412" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E412" t="s">
+        <v>43</v>
+      </c>
+      <c r="F412" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>37</v>
+      </c>
+      <c r="B413" t="s">
+        <v>7</v>
+      </c>
+      <c r="C413" t="s">
+        <v>67</v>
+      </c>
+      <c r="D413" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="E413" t="s">
+        <v>43</v>
+      </c>
+      <c r="F413" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>38</v>
+      </c>
+      <c r="B414" t="s">
+        <v>7</v>
+      </c>
+      <c r="C414" t="s">
+        <v>67</v>
+      </c>
+      <c r="D414" t="n">
+        <v>63.46</v>
+      </c>
+      <c r="E414" t="s">
+        <v>43</v>
+      </c>
+      <c r="F414" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>39</v>
+      </c>
+      <c r="B415" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415" t="s">
+        <v>67</v>
+      </c>
+      <c r="D415" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="E415" t="s">
+        <v>43</v>
+      </c>
+      <c r="F415" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>40</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+      <c r="C416" t="s">
+        <v>67</v>
+      </c>
+      <c r="D416" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="E416" t="s">
+        <v>43</v>
+      </c>
+      <c r="F416" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>41</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417" t="s">
+        <v>67</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E417" t="s">
+        <v>43</v>
+      </c>
+      <c r="F417" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>6</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418" t="s">
+        <v>69</v>
+      </c>
+      <c r="D418" t="n">
+        <v>5902.8</v>
+      </c>
+      <c r="E418" t="s">
+        <v>70</v>
+      </c>
+      <c r="F418" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>11</v>
+      </c>
+      <c r="B419" t="s">
+        <v>7</v>
+      </c>
+      <c r="C419" t="s">
+        <v>69</v>
+      </c>
+      <c r="D419" t="n">
+        <v>241.1</v>
+      </c>
+      <c r="E419" t="s">
+        <v>70</v>
+      </c>
+      <c r="F419" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>12</v>
+      </c>
+      <c r="B420" t="s">
+        <v>7</v>
+      </c>
+      <c r="C420" t="s">
+        <v>69</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1286.8</v>
+      </c>
+      <c r="E420" t="s">
+        <v>70</v>
+      </c>
+      <c r="F420" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>13</v>
+      </c>
+      <c r="B421" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421" t="s">
+        <v>69</v>
+      </c>
+      <c r="D421" t="n">
+        <v>2279.1</v>
+      </c>
+      <c r="E421" t="s">
+        <v>70</v>
+      </c>
+      <c r="F421" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>14</v>
+      </c>
+      <c r="B422" t="s">
+        <v>7</v>
+      </c>
+      <c r="C422" t="s">
+        <v>69</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2496.7</v>
+      </c>
+      <c r="E422" t="s">
+        <v>70</v>
+      </c>
+      <c r="F422" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>15</v>
+      </c>
+      <c r="B423" t="s">
+        <v>7</v>
+      </c>
+      <c r="C423" t="s">
+        <v>69</v>
+      </c>
+      <c r="D423" t="n">
+        <v>3195.9</v>
+      </c>
+      <c r="E423" t="s">
+        <v>70</v>
+      </c>
+      <c r="F423" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>16</v>
+      </c>
+      <c r="B424" t="s">
+        <v>7</v>
+      </c>
+      <c r="C424" t="s">
+        <v>69</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2106.7</v>
+      </c>
+      <c r="E424" t="s">
+        <v>70</v>
+      </c>
+      <c r="F424" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>17</v>
+      </c>
+      <c r="B425" t="s">
+        <v>7</v>
+      </c>
+      <c r="C425" t="s">
+        <v>69</v>
+      </c>
+      <c r="D425" t="n">
+        <v>479.7</v>
+      </c>
+      <c r="E425" t="s">
+        <v>70</v>
+      </c>
+      <c r="F425" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>18</v>
+      </c>
+      <c r="B426" t="s">
+        <v>7</v>
+      </c>
+      <c r="C426" t="s">
+        <v>69</v>
+      </c>
+      <c r="D426" t="n">
+        <v>10553.8</v>
+      </c>
+      <c r="E426" t="s">
+        <v>70</v>
+      </c>
+      <c r="F426" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>19</v>
+      </c>
+      <c r="B427" t="s">
+        <v>7</v>
+      </c>
+      <c r="C427" t="s">
+        <v>69</v>
+      </c>
+      <c r="D427" t="n">
+        <v>10872.7</v>
+      </c>
+      <c r="E427" t="s">
+        <v>70</v>
+      </c>
+      <c r="F427" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>20</v>
+      </c>
+      <c r="B428" t="s">
+        <v>7</v>
+      </c>
+      <c r="C428" t="s">
+        <v>69</v>
+      </c>
+      <c r="D428" t="n">
+        <v>4552.9</v>
+      </c>
+      <c r="E428" t="s">
+        <v>70</v>
+      </c>
+      <c r="F428" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>21</v>
+      </c>
+      <c r="B429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429" t="s">
+        <v>69</v>
+      </c>
+      <c r="D429" t="n">
+        <v>3842.2</v>
+      </c>
+      <c r="E429" t="s">
+        <v>70</v>
+      </c>
+      <c r="F429" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>22</v>
+      </c>
+      <c r="B430" t="s">
+        <v>7</v>
+      </c>
+      <c r="C430" t="s">
+        <v>69</v>
+      </c>
+      <c r="D430" t="n">
+        <v>5189.2</v>
+      </c>
+      <c r="E430" t="s">
+        <v>70</v>
+      </c>
+      <c r="F430" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>23</v>
+      </c>
+      <c r="B431" t="s">
+        <v>7</v>
+      </c>
+      <c r="C431" t="s">
+        <v>69</v>
+      </c>
+      <c r="D431" t="n">
+        <v>2554.7</v>
+      </c>
+      <c r="E431" t="s">
+        <v>70</v>
+      </c>
+      <c r="F431" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>24</v>
+      </c>
+      <c r="B432" t="s">
+        <v>7</v>
+      </c>
+      <c r="C432" t="s">
+        <v>69</v>
+      </c>
+      <c r="D432" t="n">
+        <v>4214.6</v>
+      </c>
+      <c r="E432" t="s">
+        <v>70</v>
+      </c>
+      <c r="F432" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>25</v>
+      </c>
+      <c r="B433" t="s">
+        <v>7</v>
+      </c>
+      <c r="C433" t="s">
+        <v>69</v>
+      </c>
+      <c r="D433" t="n">
+        <v>4599.7</v>
+      </c>
+      <c r="E433" t="s">
+        <v>70</v>
+      </c>
+      <c r="F433" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>26</v>
+      </c>
+      <c r="B434" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434" t="s">
+        <v>69</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2526.9</v>
+      </c>
+      <c r="E434" t="s">
+        <v>70</v>
+      </c>
+      <c r="F434" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>27</v>
+      </c>
+      <c r="B435" t="s">
+        <v>7</v>
+      </c>
+      <c r="C435" t="s">
+        <v>69</v>
+      </c>
+      <c r="D435" t="n">
+        <v>3280.6</v>
+      </c>
+      <c r="E435" t="s">
+        <v>70</v>
+      </c>
+      <c r="F435" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>28</v>
+      </c>
+      <c r="B436" t="s">
+        <v>7</v>
+      </c>
+      <c r="C436" t="s">
+        <v>69</v>
+      </c>
+      <c r="D436" t="n">
+        <v>787.3</v>
+      </c>
+      <c r="E436" t="s">
+        <v>70</v>
+      </c>
+      <c r="F436" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>29</v>
+      </c>
+      <c r="B437" t="s">
+        <v>7</v>
+      </c>
+      <c r="C437" t="s">
+        <v>69</v>
+      </c>
+      <c r="D437" t="n">
+        <v>435</v>
+      </c>
+      <c r="E437" t="s">
+        <v>70</v>
+      </c>
+      <c r="F437" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>30</v>
+      </c>
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438" t="s">
+        <v>69</v>
+      </c>
+      <c r="D438" t="n">
+        <v>102559</v>
+      </c>
+      <c r="E438" t="s">
+        <v>70</v>
+      </c>
+      <c r="F438" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>31</v>
+      </c>
+      <c r="B439" t="s">
+        <v>7</v>
+      </c>
+      <c r="C439" t="s">
+        <v>69</v>
+      </c>
+      <c r="D439" t="n">
+        <v>12419.9</v>
+      </c>
+      <c r="E439" t="s">
+        <v>70</v>
+      </c>
+      <c r="F439" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>32</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440" t="s">
+        <v>69</v>
+      </c>
+      <c r="D440" t="n">
+        <v>3056.1</v>
+      </c>
+      <c r="E440" t="s">
+        <v>70</v>
+      </c>
+      <c r="F440" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>33</v>
+      </c>
+      <c r="B441" t="s">
+        <v>7</v>
+      </c>
+      <c r="C441" t="s">
+        <v>69</v>
+      </c>
+      <c r="D441" t="n">
+        <v>2350.2</v>
+      </c>
+      <c r="E441" t="s">
+        <v>70</v>
+      </c>
+      <c r="F441" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>34</v>
+      </c>
+      <c r="B442" t="s">
+        <v>7</v>
+      </c>
+      <c r="C442" t="s">
+        <v>69</v>
+      </c>
+      <c r="D442" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="E442" t="s">
+        <v>70</v>
+      </c>
+      <c r="F442" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>35</v>
+      </c>
+      <c r="B443" t="s">
+        <v>7</v>
+      </c>
+      <c r="C443" t="s">
+        <v>69</v>
+      </c>
+      <c r="D443" t="n">
+        <v>3694</v>
+      </c>
+      <c r="E443" t="s">
+        <v>70</v>
+      </c>
+      <c r="F443" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>36</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444" t="s">
+        <v>69</v>
+      </c>
+      <c r="D444" t="n">
+        <v>568.1</v>
+      </c>
+      <c r="E444" t="s">
+        <v>70</v>
+      </c>
+      <c r="F444" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>37</v>
+      </c>
+      <c r="B445" t="s">
+        <v>7</v>
+      </c>
+      <c r="C445" t="s">
+        <v>69</v>
+      </c>
+      <c r="D445" t="n">
+        <v>465</v>
+      </c>
+      <c r="E445" t="s">
+        <v>70</v>
+      </c>
+      <c r="F445" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>38</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446" t="s">
+        <v>69</v>
+      </c>
+      <c r="D446" t="n">
+        <v>1968.9</v>
+      </c>
+      <c r="E446" t="s">
+        <v>70</v>
+      </c>
+      <c r="F446" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>39</v>
+      </c>
+      <c r="B447" t="s">
+        <v>7</v>
+      </c>
+      <c r="C447" t="s">
+        <v>69</v>
+      </c>
+      <c r="D447" t="n">
+        <v>2874.5</v>
+      </c>
+      <c r="E447" t="s">
+        <v>70</v>
+      </c>
+      <c r="F447" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>40</v>
+      </c>
+      <c r="B448" t="s">
+        <v>7</v>
+      </c>
+      <c r="C448" t="s">
+        <v>69</v>
+      </c>
+      <c r="D448" t="n">
+        <v>2489.4</v>
+      </c>
+      <c r="E448" t="s">
+        <v>70</v>
+      </c>
+      <c r="F448" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>41</v>
+      </c>
+      <c r="B449" t="s">
+        <v>7</v>
+      </c>
+      <c r="C449" t="s">
+        <v>69</v>
+      </c>
+      <c r="D449" t="n">
+        <v>1162</v>
+      </c>
+      <c r="E449" t="s">
+        <v>70</v>
+      </c>
+      <c r="F449" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
